--- a/tests/testthat/fixtures/ex3/tables/irt_poly_booklet3.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_poly_booklet3.xlsx
@@ -151,10 +151,10 @@
     <t xml:space="preserve">0.16</t>
   </si>
   <si>
-    <t xml:space="preserve">0.61 (0.112)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.61</t>
+    <t xml:space="preserve">0.48 (0.112)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.48</t>
   </si>
   <si>
     <t xml:space="preserve">0.62 (0.12)</t>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D2" t="n">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E2" t="n">
-        <v>85.67</v>
+        <v>85.58</v>
       </c>
       <c r="F2" t="n">
         <v>-2.28</v>
@@ -553,19 +553,19 @@
         <v>0.12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="J2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -576,10 +576,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D3" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
@@ -589,19 +589,19 @@
         <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.53</v>
+        <v>-0.62</v>
       </c>
       <c r="J3" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="K3" t="n">
         <v>0.06</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D4" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="E4" t="n">
-        <v>58.85</v>
+        <v>58.7</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
         <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="J4" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L4" t="n">
         <v>1.15</v>
@@ -650,32 +650,32 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D5" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>-0.44</v>
+        <v>-0.48</v>
       </c>
       <c r="G5" t="n">
         <v>0.06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.97</v>
+        <v>-0.54</v>
       </c>
       <c r="J5" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="K5" t="n">
         <v>0.06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
@@ -686,34 +686,34 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D6" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E6" t="n">
-        <v>23.03</v>
+        <v>24.93</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
         <v>0.14</v>
       </c>
       <c r="H6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="n">
         <v>0.06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
@@ -724,34 +724,34 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D7" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E7" t="n">
-        <v>39.38</v>
+        <v>39.64</v>
       </c>
       <c r="F7" t="n">
-        <v>0.58</v>
+        <v>0.56</v>
       </c>
       <c r="G7" t="n">
         <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="J7" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="K7" t="n">
         <v>0.05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -762,34 +762,34 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D8" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E8" t="n">
-        <v>37.21</v>
+        <v>37.46</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I8" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9">
@@ -800,10 +800,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D9" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -816,16 +816,16 @@
         <v>0.95</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.41</v>
+        <v>-1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="K9" t="n">
         <v>0.05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -836,34 +836,34 @@
         <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D10" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E10" t="n">
-        <v>26.65</v>
+        <v>26.48</v>
       </c>
       <c r="F10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.82</v>
+        <v>-0.96</v>
       </c>
       <c r="J10" t="n">
         <v>0.38</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="11">
@@ -874,13 +874,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D11" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E11" t="n">
-        <v>22.99</v>
+        <v>23.08</v>
       </c>
       <c r="F11" t="n">
         <v>1.58</v>
@@ -892,7 +892,7 @@
         <v>0.99</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="J11" t="n">
         <v>0.32</v>
@@ -901,7 +901,7 @@
         <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -949,19 +949,19 @@
         <v>39</v>
       </c>
       <c r="B2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>7704</v>
+        <v>7690</v>
       </c>
       <c r="E2" t="n">
-        <v>7732</v>
+        <v>7718</v>
       </c>
       <c r="F2" t="n">
-        <v>7796</v>
+        <v>7782</v>
       </c>
       <c r="G2" t="n">
         <v>0.664</v>
@@ -975,25 +975,25 @@
         <v>40</v>
       </c>
       <c r="B3" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C3" t="n">
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>7668</v>
+        <v>7655</v>
       </c>
       <c r="E3" t="n">
-        <v>7714</v>
+        <v>7701</v>
       </c>
       <c r="F3" t="n">
-        <v>7819</v>
+        <v>7806</v>
       </c>
       <c r="G3" t="n">
         <v>0.679</v>
       </c>
       <c r="H3" t="n">
-        <v>0.612</v>
+        <v>0.611</v>
       </c>
     </row>
   </sheetData>
